--- a/Data Wrangling/DATA/unique_raw_columns.xlsx
+++ b/Data Wrangling/DATA/unique_raw_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alkoulous/Desktop/COURSEWORK/SEMESTER 1/APPLIED DS/Task 3/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EADD2E-D97D-344E-9DDF-508709188D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29900E7E-B093-D249-99BE-A371F900A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23980" yWindow="1240" windowWidth="18080" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17760" yWindow="500" windowWidth="18080" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
